--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Position</t>
   </si>
@@ -28,7 +28,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Student Software Engineer</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Computer Science, Software, IT</t>
+  </si>
+  <si>
+    <t>Havant (Hampshire) (Hybrid)</t>
   </si>
 </sst>
 </file>
@@ -414,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -395,40 +395,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,64 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Main Skills</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Student Software Engineer</t>
-  </si>
-  <si>
-    <t>Apollo</t>
-  </si>
-  <si>
-    <t>Computer Science, Software, IT</t>
-  </si>
-  <si>
-    <t>Havant (Hampshire) (Hybrid)</t>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science, Software, IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havant (Hampshire) (Hybrid)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,82 +94,103 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -153,255 +198,158 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.68"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,21 +363,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>